--- a/biology/Médecine/Prix_Albert-Lasker_pour_la_recherche_médicale_clinique/Prix_Albert-Lasker_pour_la_recherche_médicale_clinique.xlsx
+++ b/biology/Médecine/Prix_Albert-Lasker_pour_la_recherche_médicale_clinique/Prix_Albert-Lasker_pour_la_recherche_médicale_clinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Albert-Lasker_pour_la_recherche_m%C3%A9dicale_clinique</t>
+          <t>Prix_Albert-Lasker_pour_la_recherche_médicale_clinique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Albert-Lasker pour la recherche médicale clinique est l'un des quatre prix Lasker décernés par la Fondation Lasker pour la « compréhension, le diagnostic, la prévention, le traitement, et guérison d'une maladie ». Ce prix est souvent considéré comme l'antichambre du Prix Nobel de physiologie ou médecine. En 2008, le prix a été renommé Prix Lasker-DeBakey en l'honneur de Michael DeBakey.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Albert-Lasker_pour_la_recherche_m%C3%A9dicale_clinique</t>
+          <t>Prix_Albert-Lasker_pour_la_recherche_médicale_clinique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des récipiendaires du Prix Albert Lasker pour la recherche médicale clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les récipiendaires du prix sont[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les récipiendaires du prix sont :
 1946 : John Friend Mahoney, Karl Landsteiner (à titre posthume), Alexander Wiener, Philip Levine
 1949 : Max Theiler, Edward Kendall, Philip Hench
 1950 : Georgios Papanicolaou
